--- a/2D-DG-Conservation/ConvergenceTests.xlsx
+++ b/2D-DG-Conservation/ConvergenceTests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>K</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>dwtot K=6</t>
+  </si>
+  <si>
+    <t>N=M=5</t>
+  </si>
+  <si>
+    <t>Inner</t>
+  </si>
+  <si>
+    <t>Outer</t>
+  </si>
+  <si>
+    <t>dwtot</t>
   </si>
 </sst>
 </file>
@@ -1146,6 +1158,15 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$H$46:$H$50</c:f>
@@ -1467,6 +1488,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -1510,6 +1535,15 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$H$54:$H$58</c:f>
@@ -1837,6 +1871,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -2264,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M60"/>
+  <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,10 +3634,18 @@
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
       <c r="B53">
         <v>5</v>
       </c>
@@ -3859,6 +3905,68 @@
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.19239999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>36</v>
+      </c>
+      <c r="E63">
+        <v>48</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3.60804617600671E-5</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4.8981456499678198E-5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5.6119824342995601E-5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>6.0275597558586198E-5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.747E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.7467431173284801E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="1">
+        <f>F64-F65</f>
+        <v>2.5688267151998713E-9</v>
       </c>
     </row>
   </sheetData>
